--- a/data/georgia_census/qvemo-qartli/marneuli/age_dependency.xlsx
+++ b/data/georgia_census/qvemo-qartli/marneuli/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{934BB424-6675-428C-8260-31E3B76BC167}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFCBD4F0-F960-458A-A155-045F3C8EDD3C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3594E26-6B17-43F5-B9EE-197A521443BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6281A20-3D1A-43A1-8AB1-81484EDADA18}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433D115A-0897-48A9-B0D6-11C28D3953AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D52322B4-AE62-4A4E-A15C-002E06536D40}"/>
 </file>